--- a/demo project test cases.xlsx
+++ b/demo project test cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikeshchowdary/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8693365-D484-0A47-B448-A7A8F0BE1901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA112098-B978-744A-9F07-C217C1788590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16400" xr2:uid="{9B235130-2290-FA4D-8F93-F85CC89FEA21}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{9B235130-2290-FA4D-8F93-F85CC89FEA21}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="145">
   <si>
     <t>Test scenario ID</t>
   </si>
@@ -327,13 +327,157 @@
   </si>
   <si>
     <t>Execution Pending</t>
+  </si>
+  <si>
+    <t>TS_004</t>
+  </si>
+  <si>
+    <t>Verify Forgot Password Funtionality</t>
+  </si>
+  <si>
+    <t>User initiates password reset</t>
+  </si>
+  <si>
+    <t>User clicks on the "Forgot Password" link</t>
+  </si>
+  <si>
+    <t>Redirected to the "Password Reset" page with a form to enter the registered email address</t>
+  </si>
+  <si>
+    <t>Invalid email address</t>
+  </si>
+  <si>
+    <t>Email address not registered</t>
+  </si>
+  <si>
+    <t>Valid email address</t>
+  </si>
+  <si>
+    <t>Password reset link expiration</t>
+  </si>
+  <si>
+    <t>Password reset link validity</t>
+  </si>
+  <si>
+    <t>Password reset with weak password</t>
+  </si>
+  <si>
+    <t>Password reset with strong password</t>
+  </si>
+  <si>
+    <t>Attempt to reuse password reset link</t>
+  </si>
+  <si>
+    <t>Verify password policy enforcement</t>
+  </si>
+  <si>
+    <t>UI design</t>
+  </si>
+  <si>
+    <t>Enter an invalid email address in the reset form and submit</t>
+  </si>
+  <si>
+    <t>Enter an email address not registered with the system and submit</t>
+  </si>
+  <si>
+    <t>Enter a valid email address in the reset form and submit</t>
+  </si>
+  <si>
+    <t>Click on the password reset link after it has expired</t>
+  </si>
+  <si>
+    <t>Click on the password reset link before it expires</t>
+  </si>
+  <si>
+    <t>Set a new password that does not meet the password strength requirements</t>
+  </si>
+  <si>
+    <t>Set a new password that meets the password strength requirements</t>
+  </si>
+  <si>
+    <t>Attempt to use the same password reset link again</t>
+  </si>
+  <si>
+    <t>Set a new password that violates the password policy</t>
+  </si>
+  <si>
+    <t>Verify the responsiveness of the "Forgot Password" UI</t>
+  </si>
+  <si>
+    <t>Display an error message indicating that the email address is not valid</t>
+  </si>
+  <si>
+    <t>Display a message indicating that the email address is not registered</t>
+  </si>
+  <si>
+    <t>Display a success message informing the user that a password reset email has been sent</t>
+  </si>
+  <si>
+    <t>Display a message indicating that the password reset link has expired</t>
+  </si>
+  <si>
+    <t>Redirected to a page where the user can set a new password</t>
+  </si>
+  <si>
+    <t>Display an error message indicating that the password is weak</t>
+  </si>
+  <si>
+    <t>Display a success message indicating that the password has been successfully reset</t>
+  </si>
+  <si>
+    <t>Display a message indicating that the password reset link is no longer valid</t>
+  </si>
+  <si>
+    <t>Display an error message indicating the specific password policy requirements</t>
+  </si>
+  <si>
+    <t>UI should be responsive and user-friendly for various screen sizes and devices</t>
+  </si>
+  <si>
+    <t>we must see the forgot password button in login page</t>
+  </si>
+  <si>
+    <t>email field should be responsive</t>
+  </si>
+  <si>
+    <t>we must recive password reset link and it should be responsive</t>
+  </si>
+  <si>
+    <t>you must see the forgot password page</t>
+  </si>
+  <si>
+    <t>Any invalid email address</t>
+  </si>
+  <si>
+    <t>forgot password functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">registered email address </t>
+  </si>
+  <si>
+    <t>non registered email address</t>
+  </si>
+  <si>
+    <t>reset link:</t>
+  </si>
+  <si>
+    <t>valid password:</t>
+  </si>
+  <si>
+    <t>Invalid password:</t>
+  </si>
+  <si>
+    <t>reset link::</t>
+  </si>
+  <si>
+    <t>valid ui page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -346,6 +490,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="3">
@@ -389,7 +538,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -406,6 +555,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -421,10 +573,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -724,10 +872,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB807E9D-F284-0442-A522-73DE9430A9DE}">
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1567,8 +1715,12 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
+      <c r="A31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -1578,7 +1730,299 @@
       <c r="I31" s="3"/>
       <c r="J31" s="3"/>
     </row>
-    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="42" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="46" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="48" spans="3:10" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
